--- a/Data/Cleaned.xlsx
+++ b/Data/Cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Desktop/projects/Salutation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF554CB-2BCD-0747-AE94-6A017C8EFBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219737E-69A8-9E42-8534-F35F7B7AA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="17100" windowHeight="21480" xr2:uid="{FB876EBB-2C62-491C-B2DD-4FACF1A7CEF5}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="17100" windowHeight="21480" activeTab="1" xr2:uid="{FB876EBB-2C62-491C-B2DD-4FACF1A7CEF5}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="45">
   <si>
     <t>DRINKS</t>
   </si>
@@ -76,57 +76,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>Trophy</t>
-  </si>
-  <si>
-    <t>Hero</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Heineken</t>
-  </si>
-  <si>
-    <t>M/Stout</t>
-  </si>
-  <si>
-    <t>Smooth</t>
-  </si>
-  <si>
-    <t>Goldberg</t>
-  </si>
-  <si>
-    <t>Origin Beer</t>
-  </si>
-  <si>
-    <t>Goldberg/Black</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Castle Lite</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Gulder</t>
-  </si>
-  <si>
-    <t>Flying fish</t>
-  </si>
-  <si>
-    <t>Trophy stout</t>
-  </si>
-  <si>
-    <t>Malt</t>
-  </si>
-  <si>
-    <t>Fayrouz</t>
-  </si>
-  <si>
     <t>TROPHY</t>
   </si>
   <si>
@@ -149,9 +98,6 @@
   </si>
   <si>
     <t>GOLDBERG</t>
-  </si>
-  <si>
-    <t>ORIGIN BEER</t>
   </si>
   <si>
     <t>BIG ICE</t>
@@ -220,13 +166,13 @@
     <t>recorded_date</t>
   </si>
   <si>
-    <t>STAR Ragler</t>
-  </si>
-  <si>
     <t>STAR</t>
   </si>
   <si>
-    <t>STAR lite</t>
+    <t>ORIGIN</t>
+  </si>
+  <si>
+    <t>GOLDBERG/BLACK</t>
   </si>
 </sst>
 </file>
@@ -722,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53745EEF-87E7-4826-8880-74CB7ADF9969}">
   <dimension ref="A1:L979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -896,7 +842,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -972,7 +918,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -1010,7 +956,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1048,7 +994,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1086,7 +1032,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -1124,7 +1070,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -1162,7 +1108,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1200,7 +1146,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -1276,7 +1222,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1314,7 +1260,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -1352,7 +1298,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1390,7 +1336,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1428,7 +1374,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1466,7 +1412,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1504,7 +1450,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -1542,7 +1488,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1580,7 +1526,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1618,7 +1564,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -1770,7 +1716,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1846,7 +1792,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -1884,7 +1830,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -1922,7 +1868,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1960,7 +1906,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -1998,7 +1944,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>11</v>
@@ -2036,7 +1982,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -2074,7 +2020,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>14</v>
@@ -2150,7 +2096,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2188,7 +2134,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -2226,7 +2172,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2264,7 +2210,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2302,7 +2248,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2340,7 +2286,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -2378,7 +2324,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>21</v>
@@ -2416,7 +2362,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -2454,7 +2400,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46">
         <v>15</v>
@@ -2492,7 +2438,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -2644,7 +2590,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -2720,7 +2666,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>19</v>
@@ -2758,7 +2704,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2796,7 +2742,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -2834,7 +2780,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56">
         <v>13</v>
@@ -2872,7 +2818,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -2910,7 +2856,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -2948,7 +2894,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>14</v>
@@ -3024,7 +2970,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3062,7 +3008,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B62">
         <v>18</v>
@@ -3100,7 +3046,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3138,7 +3084,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3176,7 +3122,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3214,7 +3160,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3252,7 +3198,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>21</v>
@@ -3290,7 +3236,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -3328,7 +3274,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3366,7 +3312,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3518,7 +3464,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -3594,7 +3540,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <v>15</v>
@@ -3632,7 +3578,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3670,7 +3616,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -3708,7 +3654,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -3746,7 +3692,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -3784,7 +3730,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3822,7 +3768,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3898,7 +3844,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3936,7 +3882,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B85">
         <v>14</v>
@@ -3974,7 +3920,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B86">
         <v>10</v>
@@ -4012,7 +3958,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4050,7 +3996,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4088,7 +4034,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4126,7 +4072,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4164,7 +4110,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B91">
         <v>7</v>
@@ -4202,7 +4148,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B92">
         <v>10</v>
@@ -4240,7 +4186,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4278,7 +4224,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B94">
         <v>18</v>
@@ -4316,7 +4262,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4354,7 +4300,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -4392,7 +4338,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4430,7 +4376,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B98">
         <v>24</v>
@@ -4468,7 +4414,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4506,7 +4452,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -4544,7 +4490,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -4582,7 +4528,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4620,7 +4566,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -4658,7 +4604,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -4696,7 +4642,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -4734,7 +4680,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4772,7 +4718,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -4810,7 +4756,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4848,7 +4794,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4886,7 +4832,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -4924,7 +4870,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4962,7 +4908,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5000,7 +4946,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5038,7 +4984,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5076,7 +5022,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -5114,7 +5060,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B116">
         <v>40</v>
@@ -5152,7 +5098,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B117">
         <v>20</v>
@@ -5190,7 +5136,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -5228,7 +5174,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5266,7 +5212,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B120">
         <v>19</v>
@@ -5304,7 +5250,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5342,7 +5288,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -5380,7 +5326,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B123">
         <v>14</v>
@@ -5418,7 +5364,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5456,7 +5402,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B125">
         <v>10</v>
@@ -5494,7 +5440,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -5532,7 +5478,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -5570,7 +5516,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -5608,7 +5554,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B129">
         <v>10</v>
@@ -5646,7 +5592,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5684,7 +5630,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B131">
         <v>12</v>
@@ -5722,7 +5668,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5760,7 +5706,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5798,7 +5744,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -5836,7 +5782,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B135">
         <v>17</v>
@@ -5874,7 +5820,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5912,7 +5858,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5950,7 +5896,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -5988,7 +5934,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B139">
         <v>13</v>
@@ -6026,7 +5972,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6064,7 +6010,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>9</v>
@@ -6102,7 +6048,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B142">
         <v>19</v>
@@ -6140,7 +6086,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6178,7 +6124,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -6216,7 +6162,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B145">
         <v>13</v>
@@ -6254,7 +6200,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6292,7 +6238,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B147">
         <v>6</v>
@@ -6330,7 +6276,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -6368,7 +6314,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -6406,7 +6352,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B150">
         <v>8</v>
@@ -6444,7 +6390,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -6482,7 +6428,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -6520,7 +6466,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B153">
         <v>11</v>
@@ -6558,7 +6504,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -6596,7 +6542,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -6634,7 +6580,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -6672,7 +6618,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -6710,7 +6656,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -6748,7 +6694,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -6786,7 +6732,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -6824,7 +6770,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -6862,7 +6808,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -6900,7 +6846,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -6938,7 +6884,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B164">
         <v>11</v>
@@ -6976,7 +6922,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7014,7 +6960,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B166">
         <v>6</v>
@@ -7052,7 +6998,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B167">
         <v>13</v>
@@ -7090,7 +7036,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -7128,7 +7074,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B169">
         <v>6</v>
@@ -7166,7 +7112,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -7204,7 +7150,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -7242,7 +7188,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B172">
         <v>8</v>
@@ -7280,7 +7226,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B173">
         <v>10</v>
@@ -7318,7 +7264,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -7356,7 +7302,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B175">
         <v>5</v>
@@ -7394,7 +7340,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B176">
         <v>5</v>
@@ -7432,7 +7378,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B177">
         <v>21</v>
@@ -7470,7 +7416,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -7508,7 +7454,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B179">
         <v>21</v>
@@ -7546,7 +7492,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -7584,7 +7530,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -7622,7 +7568,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -7660,7 +7606,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B183">
         <v>5</v>
@@ -7698,7 +7644,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B184">
         <v>13</v>
@@ -7736,7 +7682,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B185">
         <v>10</v>
@@ -7774,7 +7720,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B186">
         <v>5</v>
@@ -7812,7 +7758,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -7850,7 +7796,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B188">
         <v>6</v>
@@ -7888,7 +7834,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B189">
         <v>6</v>
@@ -7926,7 +7872,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -7964,7 +7910,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B191">
         <v>6</v>
@@ -8002,7 +7948,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -8040,7 +7986,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -8078,7 +8024,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -8116,7 +8062,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B195">
         <v>10</v>
@@ -8154,7 +8100,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -8192,7 +8138,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B197">
         <v>6</v>
@@ -8230,7 +8176,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -8268,7 +8214,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B199">
         <v>19</v>
@@ -8306,7 +8252,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8344,7 +8290,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B201">
         <v>13</v>
@@ -8382,7 +8328,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -8420,7 +8366,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -8458,7 +8404,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -8496,7 +8442,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -8534,7 +8480,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B206">
         <v>6</v>
@@ -8572,7 +8518,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B207">
         <v>9</v>
@@ -8610,7 +8556,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B208">
         <v>5</v>
@@ -8648,7 +8594,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B209">
         <v>15</v>
@@ -8686,7 +8632,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B210">
         <v>5</v>
@@ -8724,7 +8670,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -8762,7 +8708,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -8800,7 +8746,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B213">
         <v>4</v>
@@ -8838,7 +8784,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -8876,7 +8822,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B215">
         <v>16</v>
@@ -8914,7 +8860,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -8952,7 +8898,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B217">
         <v>10</v>
@@ -8990,7 +8936,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -9028,7 +8974,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B219">
         <v>6</v>
@@ -9066,7 +9012,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B220">
         <v>5</v>
@@ -9104,7 +9050,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B221">
         <v>19</v>
@@ -9142,7 +9088,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -9180,7 +9126,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B223">
         <v>4</v>
@@ -9218,7 +9164,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -9256,7 +9202,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -9294,7 +9240,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B226">
         <v>6</v>
@@ -9332,7 +9278,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -9370,7 +9316,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B228">
         <v>13</v>
@@ -9408,7 +9354,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B229">
         <v>16</v>
@@ -9446,7 +9392,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -9484,7 +9430,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B231">
         <v>8</v>
@@ -9522,7 +9468,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B232">
         <v>5</v>
@@ -9560,7 +9506,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B233">
         <v>12</v>
@@ -9598,7 +9544,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B234">
         <v>3</v>
@@ -9636,7 +9582,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -9674,7 +9620,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -9712,7 +9658,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B237">
         <v>4</v>
@@ -9750,7 +9696,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B238">
         <v>4</v>
@@ -9788,7 +9734,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B239">
         <v>8</v>
@@ -9826,7 +9772,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -9864,7 +9810,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -9902,7 +9848,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -9940,7 +9886,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B243">
         <v>19</v>
@@ -9978,7 +9924,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -10016,7 +9962,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B245">
         <v>12</v>
@@ -10054,7 +10000,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -10092,7 +10038,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B247">
         <v>11</v>
@@ -10130,7 +10076,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B248">
         <v>6</v>
@@ -10168,7 +10114,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -10206,7 +10152,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B250">
         <v>13</v>
@@ -10244,7 +10190,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B251">
         <v>16</v>
@@ -10282,7 +10228,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -10320,7 +10266,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B253">
         <v>8</v>
@@ -10358,7 +10304,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B254">
         <v>5</v>
@@ -10396,7 +10342,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B255">
         <v>12</v>
@@ -10434,7 +10380,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -10472,7 +10418,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -10510,7 +10456,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -10548,7 +10494,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B259">
         <v>4</v>
@@ -10586,7 +10532,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B260">
         <v>4</v>
@@ -10624,7 +10570,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B261">
         <v>8</v>
@@ -10662,7 +10608,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -10700,7 +10646,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -10738,7 +10684,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -10776,7 +10722,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B265">
         <v>19</v>
@@ -10814,7 +10760,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -10852,7 +10798,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B267">
         <v>12</v>
@@ -10890,7 +10836,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -10928,7 +10874,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B269">
         <v>11</v>
@@ -10966,7 +10912,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B270">
         <v>12</v>
@@ -11004,7 +10950,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -11042,7 +10988,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B272">
         <v>8</v>
@@ -11080,7 +11026,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B273">
         <v>14</v>
@@ -11118,7 +11064,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B274">
         <v>9</v>
@@ -11156,7 +11102,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B275">
         <v>5</v>
@@ -11194,7 +11140,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B276">
         <v>5</v>
@@ -11232,7 +11178,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B277">
         <v>5</v>
@@ -11270,7 +11216,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -11308,7 +11254,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -11346,7 +11292,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B280">
         <v>11</v>
@@ -11384,7 +11330,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B281">
         <v>21</v>
@@ -11422,7 +11368,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -11460,7 +11406,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B283">
         <v>4</v>
@@ -11498,7 +11444,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -11536,7 +11482,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B285">
         <v>9</v>
@@ -11574,7 +11520,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -11612,7 +11558,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -11650,7 +11596,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -11688,7 +11634,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B289">
         <v>18</v>
@@ -11726,7 +11672,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -11764,7 +11710,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B291">
         <v>11</v>
@@ -11802,7 +11748,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B292">
         <v>12</v>
@@ -11840,7 +11786,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -11878,7 +11824,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B294">
         <v>7</v>
@@ -11916,7 +11862,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B295">
         <v>14</v>
@@ -11954,7 +11900,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B296">
         <v>9</v>
@@ -11992,7 +11938,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -12030,7 +11976,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B298">
         <v>5</v>
@@ -12068,7 +12014,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B299">
         <v>3</v>
@@ -12106,7 +12052,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -12144,7 +12090,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -12182,7 +12128,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B302">
         <v>9</v>
@@ -12220,7 +12166,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B303">
         <v>20</v>
@@ -12258,7 +12204,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B304">
         <v>3</v>
@@ -12296,7 +12242,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -12334,7 +12280,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -12372,7 +12318,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B307">
         <v>8</v>
@@ -12410,7 +12356,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -12448,7 +12394,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -12486,7 +12432,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -12524,7 +12470,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B311">
         <v>11</v>
@@ -12562,7 +12508,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -12600,7 +12546,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B313">
         <v>11</v>
@@ -12638,7 +12584,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B314">
         <v>9</v>
@@ -12676,7 +12622,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B315">
         <v>11</v>
@@ -12714,7 +12660,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B316">
         <v>5</v>
@@ -12752,7 +12698,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B317">
         <v>10</v>
@@ -12790,7 +12736,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B318">
         <v>5</v>
@@ -12828,7 +12774,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B319">
         <v>16</v>
@@ -12866,7 +12812,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B320">
         <v>5</v>
@@ -12904,7 +12850,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B321">
         <v>3</v>
@@ -12942,7 +12888,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -12980,7 +12926,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -13018,7 +12964,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B324">
         <v>7</v>
@@ -13056,7 +13002,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B325">
         <v>20</v>
@@ -13094,7 +13040,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -13132,7 +13078,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -13170,7 +13116,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -13208,7 +13154,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B329">
         <v>6</v>
@@ -13246,7 +13192,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -13284,7 +13230,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -13322,7 +13268,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -13360,7 +13306,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -13398,7 +13344,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B334">
         <v>21</v>
@@ -13436,7 +13382,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B335">
         <v>11</v>
@@ -13474,7 +13420,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B336">
         <v>14</v>
@@ -13512,7 +13458,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B337">
         <v>17</v>
@@ -13550,7 +13496,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B338">
         <v>15</v>
@@ -13588,7 +13534,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B339">
         <v>10</v>
@@ -13626,7 +13572,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B340">
         <v>2</v>
@@ -13664,7 +13610,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B341">
         <v>16</v>
@@ -13702,7 +13648,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B342">
         <v>5</v>
@@ -13740,7 +13686,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B343">
         <v>13</v>
@@ -13778,7 +13724,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B344">
         <v>4</v>
@@ -13816,7 +13762,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -13854,7 +13800,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B346">
         <v>4</v>
@@ -13892,7 +13838,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B347">
         <v>19</v>
@@ -13930,7 +13876,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -13968,7 +13914,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B349">
         <v>8</v>
@@ -14006,7 +13952,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B350">
         <v>12</v>
@@ -14044,7 +13990,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -14082,7 +14028,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B352">
         <v>18</v>
@@ -14120,7 +14066,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -14158,7 +14104,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -14196,7 +14142,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -14234,7 +14180,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B356">
         <v>18</v>
@@ -14272,7 +14218,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B357">
         <v>20</v>
@@ -14310,7 +14256,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B358">
         <v>11</v>
@@ -14348,7 +14294,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B359">
         <v>8</v>
@@ -14386,7 +14332,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B360">
         <v>10</v>
@@ -14424,7 +14370,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B361">
         <v>12</v>
@@ -14462,7 +14408,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B362">
         <v>5</v>
@@ -14500,7 +14446,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B363">
         <v>19</v>
@@ -14538,7 +14484,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B364">
         <v>12</v>
@@ -14576,7 +14522,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -14614,7 +14560,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B366">
         <v>4</v>
@@ -14652,7 +14598,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -14690,7 +14636,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -14728,7 +14674,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B369">
         <v>7</v>
@@ -14766,7 +14712,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B370">
         <v>7</v>
@@ -14804,7 +14750,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -14842,7 +14788,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B372">
         <v>12</v>
@@ -14880,7 +14826,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -14918,7 +14864,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B374">
         <v>8</v>
@@ -14956,7 +14902,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -14994,7 +14940,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -15032,7 +14978,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B377">
         <v>7</v>
@@ -15070,7 +15016,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B378">
         <v>10</v>
@@ -15108,7 +15054,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B379">
         <v>15</v>
@@ -15146,7 +15092,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B380">
         <v>9</v>
@@ -15184,7 +15130,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B381">
         <v>6</v>
@@ -15222,7 +15168,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B382">
         <v>10</v>
@@ -15260,7 +15206,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -15298,7 +15244,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B384">
         <v>13</v>
@@ -15336,7 +15282,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B385">
         <v>5</v>
@@ -15374,7 +15320,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -15412,7 +15358,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B387">
         <v>13</v>
@@ -15450,7 +15396,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -15488,7 +15434,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B389">
         <v>13</v>
@@ -15526,7 +15472,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B390">
         <v>4</v>
@@ -15564,7 +15510,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -15602,7 +15548,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B392">
         <v>7</v>
@@ -15640,7 +15586,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B393">
         <v>10</v>
@@ -15678,7 +15624,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -15716,7 +15662,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B395">
         <v>12</v>
@@ -15754,7 +15700,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -15792,7 +15738,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B397">
         <v>11</v>
@@ -15830,7 +15776,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -15868,7 +15814,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -15906,7 +15852,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -15944,7 +15890,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -15982,7 +15928,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B402">
         <v>17</v>
@@ -16020,7 +15966,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B403">
         <v>9</v>
@@ -16058,7 +16004,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B404">
         <v>8</v>
@@ -16096,7 +16042,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B405">
         <v>9</v>
@@ -16134,7 +16080,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B406">
         <v>4</v>
@@ -16172,7 +16118,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B407">
         <v>3</v>
@@ -16210,7 +16156,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B408">
         <v>11</v>
@@ -16248,7 +16194,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B409">
         <v>13</v>
@@ -16286,7 +16232,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B410">
         <v>7</v>
@@ -16324,7 +16270,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B411">
         <v>4</v>
@@ -16362,7 +16308,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B412">
         <v>10</v>
@@ -16400,7 +16346,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -16438,7 +16384,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -16476,7 +16422,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B415">
         <v>10</v>
@@ -16514,7 +16460,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B416">
         <v>16</v>
@@ -16552,7 +16498,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -16590,7 +16536,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B418">
         <v>12</v>
@@ -16628,7 +16574,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B419">
         <v>12</v>
@@ -16666,7 +16612,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B420">
         <v>6</v>
@@ -16704,7 +16650,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B421">
         <v>6</v>
@@ -16742,7 +16688,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -16780,7 +16726,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B423">
         <v>5</v>
@@ -16818,7 +16764,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B424">
         <v>6</v>
@@ -16856,7 +16802,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B425">
         <v>9</v>
@@ -16894,7 +16840,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B426">
         <v>3</v>
@@ -16932,7 +16878,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -16970,7 +16916,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B428">
         <v>16</v>
@@ -17008,7 +16954,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -17046,7 +16992,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B430">
         <v>9</v>
@@ -17084,7 +17030,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B431">
         <v>13</v>
@@ -17122,7 +17068,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B432">
         <v>3</v>
@@ -17160,7 +17106,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -17198,7 +17144,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B434">
         <v>3</v>
@@ -17236,7 +17182,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B435">
         <v>10</v>
@@ -17274,7 +17220,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -17312,7 +17258,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -17350,7 +17296,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B438">
         <v>5</v>
@@ -17388,7 +17334,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B439">
         <v>13</v>
@@ -17426,7 +17372,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B440">
         <v>15</v>
@@ -17464,7 +17410,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B441">
         <v>12</v>
@@ -17502,7 +17448,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B442">
         <v>6</v>
@@ -17540,7 +17486,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B443">
         <v>5</v>
@@ -17578,7 +17524,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B444">
         <v>4</v>
@@ -17616,7 +17562,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -17654,7 +17600,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -17692,7 +17638,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B447">
         <v>13</v>
@@ -17730,7 +17676,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B448">
         <v>7</v>
@@ -17768,7 +17714,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B449">
         <v>7</v>
@@ -17806,7 +17752,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B450">
         <v>12</v>
@@ -17844,7 +17790,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B451">
         <v>7</v>
@@ -17882,7 +17828,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -17920,7 +17866,7 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B453">
         <v>9</v>
@@ -17958,7 +17904,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B454">
         <v>6</v>
@@ -17996,7 +17942,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -18034,7 +17980,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B456">
         <v>10</v>
@@ -18072,7 +18018,7 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -18110,7 +18056,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -18148,7 +18094,7 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B459">
         <v>0</v>
@@ -18186,7 +18132,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -18224,7 +18170,7 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -18262,7 +18208,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B462">
         <v>2</v>
@@ -18300,7 +18246,7 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B463">
         <v>4</v>
@@ -18338,7 +18284,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B464">
         <v>12</v>
@@ -18376,7 +18322,7 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B465">
         <v>4</v>
@@ -18414,7 +18360,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B466">
         <v>7</v>
@@ -18452,7 +18398,7 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -18490,7 +18436,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -18528,7 +18474,7 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B469">
         <v>5</v>
@@ -18566,7 +18512,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B470">
         <v>10</v>
@@ -18604,7 +18550,7 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B471">
         <v>8</v>
@@ -18642,7 +18588,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B472">
         <v>7</v>
@@ -18680,7 +18626,7 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B473">
         <v>3</v>
@@ -18718,7 +18664,7 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B474">
         <v>24</v>
@@ -18756,7 +18702,7 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -18794,7 +18740,7 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B476">
         <v>12</v>
@@ -18832,7 +18778,7 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B477">
         <v>8</v>
@@ -18870,7 +18816,7 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B478">
         <v>11</v>
@@ -18908,7 +18854,7 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B479">
         <v>5</v>
@@ -18946,7 +18892,7 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B480">
         <v>4</v>
@@ -18984,7 +18930,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B481">
         <v>4</v>
@@ -19022,7 +18968,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -19060,7 +19006,7 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -19098,7 +19044,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B484">
         <v>7</v>
@@ -19136,7 +19082,7 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B485">
         <v>16</v>
@@ -19174,7 +19120,7 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B486">
         <v>16</v>
@@ -19212,7 +19158,7 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B487">
         <v>12</v>
@@ -19250,7 +19196,7 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B488">
         <v>9</v>
@@ -19288,7 +19234,7 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B489">
         <v>5</v>
@@ -19326,7 +19272,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B490">
         <v>6</v>
@@ -19364,7 +19310,7 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -19402,7 +19348,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -19440,7 +19386,7 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B493">
         <v>20</v>
@@ -19478,7 +19424,7 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B494">
         <v>7</v>
@@ -19516,7 +19462,7 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B495">
         <v>12</v>
@@ -19554,7 +19500,7 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -19592,7 +19538,7 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B497">
         <v>11</v>
@@ -19630,7 +19576,7 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -19668,7 +19614,7 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B499">
         <v>8</v>
@@ -19706,7 +19652,7 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B500">
         <v>9</v>
@@ -19744,7 +19690,7 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -19782,7 +19728,7 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -19820,7 +19766,7 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -19858,7 +19804,7 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B504">
         <v>3</v>
@@ -19896,7 +19842,7 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -19934,7 +19880,7 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -19972,7 +19918,7 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B507">
         <v>5</v>
@@ -20010,7 +19956,7 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B508">
         <v>10</v>
@@ -20048,7 +19994,7 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B509">
         <v>11</v>
@@ -20086,7 +20032,7 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B510">
         <v>12</v>
@@ -20124,7 +20070,7 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B511">
         <v>6</v>
@@ -20162,7 +20108,7 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -20200,7 +20146,7 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -20238,7 +20184,7 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B514">
         <v>0</v>
@@ -20276,7 +20222,7 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B515">
         <v>0</v>
@@ -20314,7 +20260,7 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B516">
         <v>3</v>
@@ -20352,7 +20298,7 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B517">
         <v>4</v>
@@ -20390,7 +20336,7 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B518">
         <v>7</v>
@@ -20428,7 +20374,7 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B519">
         <v>12</v>
@@ -20466,7 +20412,7 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B520">
         <v>11</v>
@@ -20504,7 +20450,7 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B521">
         <v>0</v>
@@ -20542,7 +20488,7 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -20580,7 +20526,7 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B523">
         <v>7</v>
@@ -20618,7 +20564,7 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B524">
         <v>2</v>
@@ -20656,7 +20602,7 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B525">
         <v>16</v>
@@ -20694,7 +20640,7 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B526">
         <v>2</v>
@@ -20732,7 +20678,7 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B527">
         <v>12</v>
@@ -20770,7 +20716,7 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B528">
         <v>0</v>
@@ -20808,7 +20754,7 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -20846,7 +20792,7 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B530">
         <v>4</v>
@@ -20884,7 +20830,7 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B531">
         <v>8</v>
@@ -20922,7 +20868,7 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B532">
         <v>8</v>
@@ -20960,7 +20906,7 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B533">
         <v>12</v>
@@ -20998,7 +20944,7 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B534">
         <v>6</v>
@@ -21036,7 +20982,7 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -21074,7 +21020,7 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B536">
         <v>0</v>
@@ -21112,7 +21058,7 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B537">
         <v>0</v>
@@ -21150,7 +21096,7 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B538">
         <v>0</v>
@@ -21188,7 +21134,7 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B539">
         <v>16</v>
@@ -21226,7 +21172,7 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -21264,7 +21210,7 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B541">
         <v>7</v>
@@ -21302,7 +21248,7 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B542">
         <v>3</v>
@@ -21340,7 +21286,7 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B543">
         <v>5</v>
@@ -21378,7 +21324,7 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B544">
         <v>0</v>
@@ -21416,7 +21362,7 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -21454,7 +21400,7 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -21492,7 +21438,7 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B547">
         <v>0</v>
@@ -21530,7 +21476,7 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B548">
         <v>3</v>
@@ -21568,7 +21514,7 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B549">
         <v>2</v>
@@ -21606,7 +21552,7 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B550">
         <v>0</v>
@@ -21644,7 +21590,7 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B551">
         <v>0</v>
@@ -21682,7 +21628,7 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -21720,7 +21666,7 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B553">
         <v>15</v>
@@ -21758,7 +21704,7 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B554">
         <v>15</v>
@@ -21796,7 +21742,7 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -21834,7 +21780,7 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B556">
         <v>12</v>
@@ -21872,7 +21818,7 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B557">
         <v>4</v>
@@ -21910,7 +21856,7 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B558">
         <v>5</v>
@@ -21948,7 +21894,7 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B559">
         <v>0</v>
@@ -21986,7 +21932,7 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B560">
         <v>0</v>
@@ -22024,7 +21970,7 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B561">
         <v>3</v>
@@ -22062,7 +22008,7 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B562">
         <v>19</v>
@@ -22100,7 +22046,7 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B563">
         <v>6</v>
@@ -22138,7 +22084,7 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B564">
         <v>6</v>
@@ -22176,7 +22122,7 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B565">
         <v>16</v>
@@ -22214,7 +22160,7 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B566">
         <v>13</v>
@@ -22252,7 +22198,7 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B567">
         <v>0</v>
@@ -22290,7 +22236,7 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B568">
         <v>5</v>
@@ -22328,7 +22274,7 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B569">
         <v>3</v>
@@ -22366,7 +22312,7 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B570">
         <v>0</v>
@@ -22404,7 +22350,7 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B571">
         <v>4</v>
@@ -22442,7 +22388,7 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B572">
         <v>2</v>
@@ -22480,7 +22426,7 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B573">
         <v>0</v>
@@ -22518,7 +22464,7 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B574">
         <v>0</v>
@@ -22556,7 +22502,7 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -22594,7 +22540,7 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B576">
         <v>16</v>
@@ -22632,7 +22578,7 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B577">
         <v>15</v>
@@ -22670,7 +22616,7 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -22708,7 +22654,7 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B579">
         <v>12</v>
@@ -22746,7 +22692,7 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B580">
         <v>4</v>
@@ -22784,7 +22730,7 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B581">
         <v>6</v>
@@ -22822,7 +22768,7 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B582">
         <v>0</v>
@@ -22860,7 +22806,7 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -22898,7 +22844,7 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B584">
         <v>3</v>
@@ -22936,7 +22882,7 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B585">
         <v>24</v>
@@ -22974,7 +22920,7 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B586">
         <v>6</v>
@@ -23012,7 +22958,7 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B587">
         <v>6</v>
@@ -23050,7 +22996,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B588">
         <v>18</v>
@@ -23088,7 +23034,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B589">
         <v>15</v>
@@ -23126,7 +23072,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B590">
         <v>0</v>
@@ -23164,7 +23110,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B591">
         <v>0</v>
@@ -23202,7 +23148,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B592">
         <v>0</v>
@@ -23240,7 +23186,7 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B593">
         <v>0</v>
@@ -23278,7 +23224,7 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B594">
         <v>9</v>
@@ -23316,7 +23262,7 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B595">
         <v>2</v>
@@ -23354,7 +23300,7 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B596">
         <v>0</v>
@@ -23392,7 +23338,7 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B597">
         <v>0</v>
@@ -23430,7 +23376,7 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B598">
         <v>0</v>
@@ -23468,7 +23414,7 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B599">
         <v>6</v>
@@ -23506,7 +23452,7 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B600">
         <v>9</v>
@@ -23544,7 +23490,7 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B601">
         <v>11</v>
@@ -23582,7 +23528,7 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B602">
         <v>12</v>
@@ -23620,7 +23566,7 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B603">
         <v>3</v>
@@ -23658,7 +23604,7 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B604">
         <v>10</v>
@@ -23696,7 +23642,7 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B605">
         <v>0</v>
@@ -23734,7 +23680,7 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B606">
         <v>0</v>
@@ -23772,7 +23718,7 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -23810,7 +23756,7 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B608">
         <v>0</v>
@@ -23848,7 +23794,7 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B609">
         <v>3</v>
@@ -23886,7 +23832,7 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B610">
         <v>4</v>
@@ -23924,7 +23870,7 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B611">
         <v>4</v>
@@ -23962,7 +23908,7 @@
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B612">
         <v>16</v>
@@ -24000,7 +23946,7 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B613">
         <v>0</v>
@@ -24038,7 +23984,7 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B614">
         <v>0</v>
@@ -24076,7 +24022,7 @@
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B615">
         <v>0</v>
@@ -24114,7 +24060,7 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B616">
         <v>0</v>
@@ -24152,7 +24098,7 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B617">
         <v>0</v>
@@ -24190,7 +24136,7 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -24228,7 +24174,7 @@
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B619">
         <v>0</v>
@@ -24266,7 +24212,7 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B620">
         <v>0</v>
@@ -24304,7 +24250,7 @@
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B621">
         <v>0</v>
@@ -24342,7 +24288,7 @@
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B622">
         <v>12</v>
@@ -24380,7 +24326,7 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B623">
         <v>6</v>
@@ -24418,7 +24364,7 @@
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B624">
         <v>4</v>
@@ -24456,7 +24402,7 @@
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B625">
         <v>12</v>
@@ -24494,7 +24440,7 @@
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B626">
         <v>3</v>
@@ -24532,7 +24478,7 @@
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B627">
         <v>7</v>
@@ -24570,7 +24516,7 @@
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B628">
         <v>0</v>
@@ -24608,7 +24554,7 @@
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B629">
         <v>0</v>
@@ -24646,7 +24592,7 @@
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B630">
         <v>10</v>
@@ -24684,7 +24630,7 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B631">
         <v>21</v>
@@ -24722,7 +24668,7 @@
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B632">
         <v>11</v>
@@ -24760,7 +24706,7 @@
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B633">
         <v>0</v>
@@ -24798,7 +24744,7 @@
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B634">
         <v>10</v>
@@ -24836,7 +24782,7 @@
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B635">
         <v>9</v>
@@ -24874,7 +24820,7 @@
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B636">
         <v>0</v>
@@ -24912,7 +24858,7 @@
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B637">
         <v>0</v>
@@ -24950,7 +24896,7 @@
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B638">
         <v>0</v>
@@ -24988,7 +24934,7 @@
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B639">
         <v>0</v>
@@ -25026,7 +24972,7 @@
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B640">
         <v>3</v>
@@ -25064,7 +25010,7 @@
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B641">
         <v>1</v>
@@ -25102,7 +25048,7 @@
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B642">
         <v>0</v>
@@ -25140,7 +25086,7 @@
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B643">
         <v>0</v>
@@ -25178,7 +25124,7 @@
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B644">
         <v>0</v>
@@ -25216,7 +25162,7 @@
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B645">
         <v>2</v>
@@ -25254,7 +25200,7 @@
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B646">
         <v>9</v>
@@ -25292,7 +25238,7 @@
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B647">
         <v>12</v>
@@ -25330,7 +25276,7 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B648">
         <v>12</v>
@@ -25368,7 +25314,7 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B649">
         <v>3</v>
@@ -25406,7 +25352,7 @@
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B650">
         <v>10</v>
@@ -25444,7 +25390,7 @@
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B651">
         <v>0</v>
@@ -25482,7 +25428,7 @@
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B652">
         <v>0</v>
@@ -25520,7 +25466,7 @@
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B653">
         <v>0</v>
@@ -25558,7 +25504,7 @@
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B654">
         <v>0</v>
@@ -25596,7 +25542,7 @@
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B655">
         <v>0</v>
@@ -25634,7 +25580,7 @@
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B656">
         <v>1</v>
@@ -25672,7 +25618,7 @@
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B657">
         <v>3</v>
@@ -25710,7 +25656,7 @@
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B658">
         <v>7</v>
@@ -25748,7 +25694,7 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B659">
         <v>6</v>
@@ -25786,7 +25732,7 @@
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B660">
         <v>9</v>
@@ -25824,7 +25770,7 @@
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B661">
         <v>10</v>
@@ -25862,7 +25808,7 @@
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B662">
         <v>18</v>
@@ -25900,7 +25846,7 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B663">
         <v>15</v>
@@ -25938,7 +25884,7 @@
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B664">
         <v>1</v>
@@ -25976,7 +25922,7 @@
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B665">
         <v>4</v>
@@ -26014,7 +25960,7 @@
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B666">
         <v>0</v>
@@ -26052,7 +25998,7 @@
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B667">
         <v>0</v>
@@ -26090,7 +26036,7 @@
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B668">
         <v>10</v>
@@ -26128,7 +26074,7 @@
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B669">
         <v>5</v>
@@ -26166,7 +26112,7 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B670">
         <v>0</v>
@@ -26204,7 +26150,7 @@
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B671">
         <v>11</v>
@@ -26242,7 +26188,7 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B672">
         <v>2</v>
@@ -26280,7 +26226,7 @@
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B673">
         <v>2</v>
@@ -26318,7 +26264,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B674">
         <v>0</v>
@@ -26356,7 +26302,7 @@
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B675">
         <v>0</v>
@@ -26394,7 +26340,7 @@
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B676">
         <v>7</v>
@@ -26432,7 +26378,7 @@
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B677">
         <v>13</v>
@@ -26470,7 +26416,7 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B678">
         <v>11</v>
@@ -26508,7 +26454,7 @@
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B679">
         <v>0</v>
@@ -26546,7 +26492,7 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B680">
         <v>0</v>
@@ -26584,7 +26530,7 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B681">
         <v>4</v>
@@ -26622,7 +26568,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B682">
         <v>11</v>
@@ -26660,7 +26606,7 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B683">
         <v>11</v>
@@ -26698,7 +26644,7 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B684">
         <v>7</v>
@@ -26736,7 +26682,7 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B685">
         <v>7</v>
@@ -26774,7 +26720,7 @@
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B686">
         <v>0</v>
@@ -26812,7 +26758,7 @@
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B687">
         <v>0</v>
@@ -26850,7 +26796,7 @@
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B688">
         <v>0</v>
@@ -26888,7 +26834,7 @@
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B689">
         <v>0</v>
@@ -26926,7 +26872,7 @@
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -26964,7 +26910,7 @@
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B691">
         <v>11</v>
@@ -27002,7 +26948,7 @@
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B692">
         <v>0</v>
@@ -27040,7 +26986,7 @@
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B693">
         <v>4</v>
@@ -27078,7 +27024,7 @@
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B694">
         <v>9</v>
@@ -27116,7 +27062,7 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B695">
         <v>0</v>
@@ -27154,7 +27100,7 @@
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B696">
         <v>1</v>
@@ -27192,7 +27138,7 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B697">
         <v>0</v>
@@ -27230,7 +27176,7 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B698">
         <v>0</v>
@@ -27268,7 +27214,7 @@
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B699">
         <v>8</v>
@@ -27306,7 +27252,7 @@
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B700">
         <v>11</v>
@@ -27344,7 +27290,7 @@
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B701">
         <v>3</v>
@@ -27382,7 +27328,7 @@
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B702">
         <v>0</v>
@@ -27420,7 +27366,7 @@
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B703">
         <v>3</v>
@@ -27458,7 +27404,7 @@
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B704">
         <v>13</v>
@@ -27496,7 +27442,7 @@
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B705">
         <v>12</v>
@@ -27534,7 +27480,7 @@
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B706">
         <v>9</v>
@@ -27572,7 +27518,7 @@
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B707">
         <v>10</v>
@@ -27610,7 +27556,7 @@
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B708">
         <v>17</v>
@@ -27648,7 +27594,7 @@
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B709">
         <v>10</v>
@@ -27686,7 +27632,7 @@
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -27724,7 +27670,7 @@
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B711">
         <v>4</v>
@@ -27762,7 +27708,7 @@
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B712">
         <v>0</v>
@@ -27800,7 +27746,7 @@
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B713">
         <v>0</v>
@@ -27838,7 +27784,7 @@
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B714">
         <v>8</v>
@@ -27876,7 +27822,7 @@
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B715">
         <v>5</v>
@@ -27914,7 +27860,7 @@
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B716">
         <v>0</v>
@@ -27952,7 +27898,7 @@
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B717">
         <v>11</v>
@@ -27990,7 +27936,7 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -28028,7 +27974,7 @@
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B719">
         <v>13</v>
@@ -28066,7 +28012,7 @@
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B720">
         <v>0</v>
@@ -28104,7 +28050,7 @@
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B721">
         <v>0</v>
@@ -28142,7 +28088,7 @@
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B722">
         <v>7</v>
@@ -28180,7 +28126,7 @@
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B723">
         <v>9</v>
@@ -28218,7 +28164,7 @@
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B724">
         <v>10</v>
@@ -28256,7 +28202,7 @@
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B725">
         <v>0</v>
@@ -28294,7 +28240,7 @@
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B726">
         <v>0</v>
@@ -28332,7 +28278,7 @@
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B727">
         <v>17</v>
@@ -28370,7 +28316,7 @@
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B728">
         <v>6</v>
@@ -28408,7 +28354,7 @@
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B729">
         <v>14</v>
@@ -28446,7 +28392,7 @@
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B730">
         <v>10</v>
@@ -28484,7 +28430,7 @@
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B731">
         <v>10</v>
@@ -28522,7 +28468,7 @@
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B732">
         <v>8</v>
@@ -28560,7 +28506,7 @@
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B733">
         <v>0</v>
@@ -28598,7 +28544,7 @@
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B734">
         <v>1</v>
@@ -28636,7 +28582,7 @@
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B735">
         <v>0</v>
@@ -28674,7 +28620,7 @@
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B736">
         <v>3</v>
@@ -28712,7 +28658,7 @@
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B737">
         <v>2</v>
@@ -28750,7 +28696,7 @@
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B738">
         <v>4</v>
@@ -28788,7 +28734,7 @@
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B739">
         <v>8</v>
@@ -28826,7 +28772,7 @@
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B740">
         <v>11</v>
@@ -28864,7 +28810,7 @@
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B741">
         <v>2</v>
@@ -28902,7 +28848,7 @@
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B742">
         <v>5</v>
@@ -28940,7 +28886,7 @@
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B743">
         <v>0</v>
@@ -28978,7 +28924,7 @@
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B744">
         <v>0</v>
@@ -29016,7 +28962,7 @@
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B745">
         <v>9</v>
@@ -29054,7 +29000,7 @@
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B746">
         <v>14</v>
@@ -29092,7 +29038,7 @@
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B747">
         <v>10</v>
@@ -29130,7 +29076,7 @@
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B748">
         <v>0</v>
@@ -29168,7 +29114,7 @@
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B749">
         <v>7</v>
@@ -29206,7 +29152,7 @@
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B750">
         <v>9</v>
@@ -29244,7 +29190,7 @@
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -29282,7 +29228,7 @@
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B752">
         <v>2</v>
@@ -29320,7 +29266,7 @@
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B753">
         <v>10</v>
@@ -29358,7 +29304,7 @@
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B754">
         <v>9</v>
@@ -29396,7 +29342,7 @@
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B755">
         <v>5</v>
@@ -29434,7 +29380,7 @@
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B756">
         <v>0</v>
@@ -29472,7 +29418,7 @@
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B757">
         <v>10</v>
@@ -29510,7 +29456,7 @@
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B758">
         <v>0</v>
@@ -29548,7 +29494,7 @@
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -29586,7 +29532,7 @@
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B760">
         <v>2</v>
@@ -29624,7 +29570,7 @@
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B761">
         <v>3</v>
@@ -29662,7 +29608,7 @@
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B762">
         <v>7</v>
@@ -29700,7 +29646,7 @@
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B763">
         <v>8</v>
@@ -29738,7 +29684,7 @@
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B764">
         <v>2</v>
@@ -29776,7 +29722,7 @@
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B765">
         <v>2</v>
@@ -29814,7 +29760,7 @@
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B766">
         <v>0</v>
@@ -29852,7 +29798,7 @@
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B767">
         <v>0</v>
@@ -29890,7 +29836,7 @@
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B768">
         <v>8</v>
@@ -29928,7 +29874,7 @@
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B769">
         <v>4</v>
@@ -29966,7 +29912,7 @@
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B770">
         <v>6</v>
@@ -30004,7 +29950,7 @@
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B771">
         <v>0</v>
@@ -30042,7 +29988,7 @@
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B772">
         <v>2</v>
@@ -30080,7 +30026,7 @@
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B773">
         <v>16</v>
@@ -30118,7 +30064,7 @@
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B774">
         <v>12</v>
@@ -30156,7 +30102,7 @@
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B775">
         <v>14</v>
@@ -30194,7 +30140,7 @@
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B776">
         <v>7</v>
@@ -30232,7 +30178,7 @@
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B777">
         <v>7</v>
@@ -30270,7 +30216,7 @@
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B778">
         <v>4</v>
@@ -30308,7 +30254,7 @@
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B779">
         <v>0</v>
@@ -30346,7 +30292,7 @@
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B780">
         <v>5</v>
@@ -30384,7 +30330,7 @@
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B781">
         <v>0</v>
@@ -30422,7 +30368,7 @@
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B782">
         <v>2</v>
@@ -30460,7 +30406,7 @@
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B783">
         <v>12</v>
@@ -30498,7 +30444,7 @@
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B784">
         <v>0</v>
@@ -30536,7 +30482,7 @@
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B785">
         <v>5</v>
@@ -30574,7 +30520,7 @@
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B786">
         <v>9</v>
@@ -30612,7 +30558,7 @@
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B787">
         <v>0</v>
@@ -30650,7 +30596,7 @@
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B788">
         <v>2</v>
@@ -30688,7 +30634,7 @@
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B789">
         <v>0</v>
@@ -30726,7 +30672,7 @@
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B790">
         <v>0</v>
@@ -30764,7 +30710,7 @@
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B791">
         <v>8</v>
@@ -30802,7 +30748,7 @@
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B792">
         <v>20</v>
@@ -30840,7 +30786,7 @@
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B793">
         <v>6</v>
@@ -30878,7 +30824,7 @@
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B794">
         <v>0</v>
@@ -30916,7 +30862,7 @@
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B795">
         <v>9</v>
@@ -30954,7 +30900,7 @@
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B796">
         <v>4</v>
@@ -30992,7 +30938,7 @@
     </row>
     <row r="797" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B797">
         <v>2</v>
@@ -31030,7 +30976,7 @@
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B798">
         <v>4</v>
@@ -31068,7 +31014,7 @@
     </row>
     <row r="799" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B799">
         <v>12</v>
@@ -31106,7 +31052,7 @@
     </row>
     <row r="800" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B800">
         <v>1</v>
@@ -31144,7 +31090,7 @@
     </row>
     <row r="801" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B801">
         <v>0</v>
@@ -31182,7 +31128,7 @@
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B802">
         <v>0</v>
@@ -31220,7 +31166,7 @@
     </row>
     <row r="803" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B803">
         <v>9</v>
@@ -31258,7 +31204,7 @@
     </row>
     <row r="804" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B804">
         <v>0</v>
@@ -31296,7 +31242,7 @@
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B805">
         <v>1</v>
@@ -31334,7 +31280,7 @@
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B806">
         <v>9</v>
@@ -31372,7 +31318,7 @@
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B807">
         <v>15</v>
@@ -31410,7 +31356,7 @@
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B808">
         <v>1</v>
@@ -31448,7 +31394,7 @@
     </row>
     <row r="809" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B809">
         <v>8</v>
@@ -31486,7 +31432,7 @@
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B810">
         <v>0</v>
@@ -31524,7 +31470,7 @@
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B811">
         <v>0</v>
@@ -31562,7 +31508,7 @@
     </row>
     <row r="812" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B812">
         <v>0</v>
@@ -31600,7 +31546,7 @@
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B813">
         <v>0</v>
@@ -31638,7 +31584,7 @@
     </row>
     <row r="814" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B814">
         <v>9</v>
@@ -31673,7 +31619,7 @@
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B815">
         <v>3</v>
@@ -31711,7 +31657,7 @@
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B816">
         <v>22</v>
@@ -31749,7 +31695,7 @@
     </row>
     <row r="817" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B817">
         <v>0</v>
@@ -31787,7 +31733,7 @@
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B818">
         <v>9</v>
@@ -31825,7 +31771,7 @@
     </row>
     <row r="819" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B819">
         <v>1</v>
@@ -31863,7 +31809,7 @@
     </row>
     <row r="820" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B820">
         <v>8</v>
@@ -31901,7 +31847,7 @@
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B821">
         <v>13</v>
@@ -31939,7 +31885,7 @@
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B822">
         <v>8</v>
@@ -31977,7 +31923,7 @@
     </row>
     <row r="823" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B823">
         <v>17</v>
@@ -32015,7 +31961,7 @@
     </row>
     <row r="824" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B824">
         <v>16</v>
@@ -32053,7 +31999,7 @@
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B825">
         <v>0</v>
@@ -32091,7 +32037,7 @@
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B826">
         <v>0</v>
@@ -32129,7 +32075,7 @@
     </row>
     <row r="827" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B827">
         <v>0</v>
@@ -32167,7 +32113,7 @@
     </row>
     <row r="828" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B828">
         <v>1</v>
@@ -32205,7 +32151,7 @@
     </row>
     <row r="829" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B829">
         <v>6</v>
@@ -32243,7 +32189,7 @@
     </row>
     <row r="830" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B830">
         <v>12</v>
@@ -32281,7 +32227,7 @@
     </row>
     <row r="831" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B831">
         <v>0</v>
@@ -32319,7 +32265,7 @@
     </row>
     <row r="832" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B832">
         <v>14</v>
@@ -32357,7 +32303,7 @@
     </row>
     <row r="833" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B833">
         <v>5</v>
@@ -32395,7 +32341,7 @@
     </row>
     <row r="834" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B834">
         <v>12</v>
@@ -32433,7 +32379,7 @@
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B835">
         <v>0</v>
@@ -32471,7 +32417,7 @@
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B836">
         <v>9</v>
@@ -32509,7 +32455,7 @@
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B837">
         <v>8</v>
@@ -32547,7 +32493,7 @@
     </row>
     <row r="838" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B838">
         <v>9</v>
@@ -32585,7 +32531,7 @@
     </row>
     <row r="839" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B839">
         <v>17</v>
@@ -32623,7 +32569,7 @@
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B840">
         <v>0</v>
@@ -32661,7 +32607,7 @@
     </row>
     <row r="841" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B841">
         <v>9</v>
@@ -32699,7 +32645,7 @@
     </row>
     <row r="842" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B842">
         <v>10</v>
@@ -32737,7 +32683,7 @@
     </row>
     <row r="843" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B843">
         <v>2</v>
@@ -32775,7 +32721,7 @@
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B844">
         <v>11</v>
@@ -32813,7 +32759,7 @@
     </row>
     <row r="845" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B845">
         <v>2</v>
@@ -32851,7 +32797,7 @@
     </row>
     <row r="846" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B846">
         <v>14</v>
@@ -32889,7 +32835,7 @@
     </row>
     <row r="847" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B847">
         <v>3</v>
@@ -32927,7 +32873,7 @@
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B848">
         <v>0</v>
@@ -32965,7 +32911,7 @@
     </row>
     <row r="849" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B849">
         <v>8</v>
@@ -33003,7 +32949,7 @@
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B850">
         <v>0</v>
@@ -33041,7 +32987,7 @@
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B851">
         <v>1</v>
@@ -33079,7 +33025,7 @@
     </row>
     <row r="852" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B852">
         <v>5</v>
@@ -33117,7 +33063,7 @@
     </row>
     <row r="853" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B853">
         <v>8</v>
@@ -33155,7 +33101,7 @@
     </row>
     <row r="854" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B854">
         <v>0</v>
@@ -33193,7 +33139,7 @@
     </row>
     <row r="855" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B855">
         <v>10</v>
@@ -33231,7 +33177,7 @@
     </row>
     <row r="856" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B856">
         <v>3</v>
@@ -33269,7 +33215,7 @@
     </row>
     <row r="857" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B857">
         <v>8</v>
@@ -33307,7 +33253,7 @@
     </row>
     <row r="858" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B858">
         <v>0</v>
@@ -33345,7 +33291,7 @@
     </row>
     <row r="859" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B859">
         <v>9</v>
@@ -33383,7 +33329,7 @@
     </row>
     <row r="860" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B860">
         <v>6</v>
@@ -33421,7 +33367,7 @@
     </row>
     <row r="861" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B861">
         <v>10</v>
@@ -33459,7 +33405,7 @@
     </row>
     <row r="862" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B862">
         <v>12</v>
@@ -33497,7 +33443,7 @@
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B863">
         <v>0</v>
@@ -33535,7 +33481,7 @@
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B864">
         <v>5</v>
@@ -33573,7 +33519,7 @@
     </row>
     <row r="865" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B865">
         <v>4</v>
@@ -33611,7 +33557,7 @@
     </row>
     <row r="866" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B866">
         <v>1</v>
@@ -33649,7 +33595,7 @@
     </row>
     <row r="867" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B867">
         <v>11</v>
@@ -33687,7 +33633,7 @@
     </row>
     <row r="868" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B868">
         <v>2</v>
@@ -33725,7 +33671,7 @@
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B869">
         <v>12</v>
@@ -33763,7 +33709,7 @@
     </row>
     <row r="870" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B870">
         <v>1</v>
@@ -33801,7 +33747,7 @@
     </row>
     <row r="871" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B871">
         <v>0</v>
@@ -33839,7 +33785,7 @@
     </row>
     <row r="872" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B872">
         <v>6</v>
@@ -33877,7 +33823,7 @@
     </row>
     <row r="873" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B873">
         <v>0</v>
@@ -33915,7 +33861,7 @@
     </row>
     <row r="874" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B874">
         <v>1</v>
@@ -33953,7 +33899,7 @@
     </row>
     <row r="875" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B875">
         <v>1</v>
@@ -33991,7 +33937,7 @@
     </row>
     <row r="876" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B876">
         <v>8</v>
@@ -34029,7 +33975,7 @@
     </row>
     <row r="877" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B877">
         <v>0</v>
@@ -34067,7 +34013,7 @@
     </row>
     <row r="878" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B878">
         <v>10</v>
@@ -34105,7 +34051,7 @@
     </row>
     <row r="879" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B879">
         <v>3</v>
@@ -34143,7 +34089,7 @@
     </row>
     <row r="880" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B880">
         <v>8</v>
@@ -34181,7 +34127,7 @@
     </row>
     <row r="881" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B881">
         <v>0</v>
@@ -34219,7 +34165,7 @@
     </row>
     <row r="882" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B882">
         <v>0</v>
@@ -34257,7 +34203,7 @@
     </row>
     <row r="883" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B883">
         <v>5</v>
@@ -34295,7 +34241,7 @@
     </row>
     <row r="884" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B884">
         <v>7</v>
@@ -34333,7 +34279,7 @@
     </row>
     <row r="885" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B885">
         <v>11</v>
@@ -34371,7 +34317,7 @@
     </row>
     <row r="886" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B886">
         <v>0</v>
@@ -34409,7 +34355,7 @@
     </row>
     <row r="887" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B887">
         <v>4</v>
@@ -34447,7 +34393,7 @@
     </row>
     <row r="888" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B888">
         <v>11</v>
@@ -34485,7 +34431,7 @@
     </row>
     <row r="889" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B889">
         <v>12</v>
@@ -34523,7 +34469,7 @@
     </row>
     <row r="890" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B890">
         <v>5</v>
@@ -34561,7 +34507,7 @@
     </row>
     <row r="891" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B891">
         <v>10</v>
@@ -34599,7 +34545,7 @@
     </row>
     <row r="892" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B892">
         <v>15</v>
@@ -34637,7 +34583,7 @@
     </row>
     <row r="893" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B893">
         <v>10</v>
@@ -34675,7 +34621,7 @@
     </row>
     <row r="894" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B894">
         <v>0</v>
@@ -34713,7 +34659,7 @@
     </row>
     <row r="895" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B895">
         <v>2</v>
@@ -34751,7 +34697,7 @@
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B896">
         <v>0</v>
@@ -34789,7 +34735,7 @@
     </row>
     <row r="897" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B897">
         <v>0</v>
@@ -34827,7 +34773,7 @@
     </row>
     <row r="898" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B898">
         <v>4</v>
@@ -34865,7 +34811,7 @@
     </row>
     <row r="899" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B899">
         <v>4</v>
@@ -34903,7 +34849,7 @@
     </row>
     <row r="900" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B900">
         <v>0</v>
@@ -34941,7 +34887,7 @@
     </row>
     <row r="901" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B901">
         <v>11</v>
@@ -34979,7 +34925,7 @@
     </row>
     <row r="902" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B902">
         <v>2</v>
@@ -35017,7 +34963,7 @@
     </row>
     <row r="903" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B903">
         <v>8</v>
@@ -35055,7 +35001,7 @@
     </row>
     <row r="904" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B904">
         <v>0</v>
@@ -35093,7 +35039,7 @@
     </row>
     <row r="905" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B905">
         <v>0</v>
@@ -35131,7 +35077,7 @@
     </row>
     <row r="906" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B906">
         <v>7</v>
@@ -35169,7 +35115,7 @@
     </row>
     <row r="907" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B907">
         <v>4</v>
@@ -35207,7 +35153,7 @@
     </row>
     <row r="908" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B908">
         <v>11</v>
@@ -35245,7 +35191,7 @@
     </row>
     <row r="909" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B909">
         <v>0</v>
@@ -35283,7 +35229,7 @@
     </row>
     <row r="910" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B910">
         <v>0</v>
@@ -35321,7 +35267,7 @@
     </row>
     <row r="911" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B911">
         <v>10</v>
@@ -35359,7 +35305,7 @@
     </row>
     <row r="912" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B912">
         <v>11</v>
@@ -35397,7 +35343,7 @@
     </row>
     <row r="913" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B913">
         <v>14</v>
@@ -35435,7 +35381,7 @@
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B914">
         <v>12</v>
@@ -35473,7 +35419,7 @@
     </row>
     <row r="915" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B915">
         <v>21</v>
@@ -35511,7 +35457,7 @@
     </row>
     <row r="916" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B916">
         <v>18</v>
@@ -35549,7 +35495,7 @@
     </row>
     <row r="917" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B917">
         <v>0</v>
@@ -35587,7 +35533,7 @@
     </row>
     <row r="918" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B918">
         <v>4</v>
@@ -35625,7 +35571,7 @@
     </row>
     <row r="919" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B919">
         <v>0</v>
@@ -35663,7 +35609,7 @@
     </row>
     <row r="920" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B920">
         <v>1</v>
@@ -35701,7 +35647,7 @@
     </row>
     <row r="921" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B921">
         <v>9</v>
@@ -35739,7 +35685,7 @@
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B922">
         <v>12</v>
@@ -35777,7 +35723,7 @@
     </row>
     <row r="923" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B923">
         <v>1</v>
@@ -35815,7 +35761,7 @@
     </row>
     <row r="924" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B924">
         <v>14</v>
@@ -35853,7 +35799,7 @@
     </row>
     <row r="925" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B925">
         <v>6</v>
@@ -35891,7 +35837,7 @@
     </row>
     <row r="926" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B926">
         <v>12</v>
@@ -35929,7 +35875,7 @@
     </row>
     <row r="927" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B927">
         <v>0</v>
@@ -35967,7 +35913,7 @@
     </row>
     <row r="928" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B928">
         <v>0</v>
@@ -36005,7 +35951,7 @@
     </row>
     <row r="929" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B929">
         <v>8</v>
@@ -36043,7 +35989,7 @@
     </row>
     <row r="930" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B930">
         <v>20</v>
@@ -36081,7 +36027,7 @@
     </row>
     <row r="931" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B931">
         <v>17</v>
@@ -36119,7 +36065,7 @@
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B932">
         <v>0</v>
@@ -36157,7 +36103,7 @@
     </row>
     <row r="933" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B933">
         <v>0</v>
@@ -36195,7 +36141,7 @@
     </row>
     <row r="934" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B934">
         <v>1</v>
@@ -36233,7 +36179,7 @@
     </row>
     <row r="935" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B935">
         <v>0</v>
@@ -36271,7 +36217,7 @@
     </row>
     <row r="936" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B936">
         <v>9</v>
@@ -36309,7 +36255,7 @@
     </row>
     <row r="937" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B937">
         <v>11</v>
@@ -36347,7 +36293,7 @@
     </row>
     <row r="938" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B938">
         <v>11</v>
@@ -36385,7 +36331,7 @@
     </row>
     <row r="939" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B939">
         <v>15</v>
@@ -36423,7 +36369,7 @@
     </row>
     <row r="940" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B940">
         <v>0</v>
@@ -36461,7 +36407,7 @@
     </row>
     <row r="941" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B941">
         <v>15</v>
@@ -36499,7 +36445,7 @@
     </row>
     <row r="942" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B942">
         <v>0</v>
@@ -36537,7 +36483,7 @@
     </row>
     <row r="943" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B943">
         <v>1</v>
@@ -36575,7 +36521,7 @@
     </row>
     <row r="944" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B944">
         <v>6</v>
@@ -36613,7 +36559,7 @@
     </row>
     <row r="945" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B945">
         <v>3</v>
@@ -36651,7 +36597,7 @@
     </row>
     <row r="946" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B946">
         <v>0</v>
@@ -36689,7 +36635,7 @@
     </row>
     <row r="947" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B947">
         <v>10</v>
@@ -36727,7 +36673,7 @@
     </row>
     <row r="948" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B948">
         <v>3</v>
@@ -36765,7 +36711,7 @@
     </row>
     <row r="949" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B949">
         <v>6</v>
@@ -36803,7 +36749,7 @@
     </row>
     <row r="950" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B950">
         <v>0</v>
@@ -36841,7 +36787,7 @@
     </row>
     <row r="951" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B951">
         <v>0</v>
@@ -36879,7 +36825,7 @@
     </row>
     <row r="952" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B952">
         <v>4</v>
@@ -36917,7 +36863,7 @@
     </row>
     <row r="953" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B953">
         <v>24</v>
@@ -36955,7 +36901,7 @@
     </row>
     <row r="954" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B954">
         <v>9</v>
@@ -36993,7 +36939,7 @@
     </row>
     <row r="955" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B955">
         <v>0</v>
@@ -37031,7 +36977,7 @@
     </row>
     <row r="956" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B956">
         <v>13</v>
@@ -37069,7 +37015,7 @@
     </row>
     <row r="957" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B957">
         <v>0</v>
@@ -37107,7 +37053,7 @@
     </row>
     <row r="958" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B958">
         <v>0</v>
@@ -37145,7 +37091,7 @@
     </row>
     <row r="959" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B959">
         <v>14</v>
@@ -37183,7 +37129,7 @@
     </row>
     <row r="960" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B960">
         <v>15</v>
@@ -37221,7 +37167,7 @@
     </row>
     <row r="961" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B961">
         <v>11</v>
@@ -37259,7 +37205,7 @@
     </row>
     <row r="962" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B962">
         <v>15</v>
@@ -37297,7 +37243,7 @@
     </row>
     <row r="963" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B963">
         <v>0</v>
@@ -37335,7 +37281,7 @@
     </row>
     <row r="964" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B964">
         <v>7</v>
@@ -37373,7 +37319,7 @@
     </row>
     <row r="965" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B965">
         <v>0</v>
@@ -37411,7 +37357,7 @@
     </row>
     <row r="966" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B966">
         <v>1</v>
@@ -37449,7 +37395,7 @@
     </row>
     <row r="967" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B967">
         <v>0</v>
@@ -37487,7 +37433,7 @@
     </row>
     <row r="968" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B968">
         <v>12</v>
@@ -37525,7 +37471,7 @@
     </row>
     <row r="969" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B969">
         <v>0</v>
@@ -37563,7 +37509,7 @@
     </row>
     <row r="970" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B970">
         <v>10</v>
@@ -37601,7 +37547,7 @@
     </row>
     <row r="971" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B971">
         <v>12</v>
@@ -37639,7 +37585,7 @@
     </row>
     <row r="972" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B972">
         <v>4</v>
@@ -37677,7 +37623,7 @@
     </row>
     <row r="973" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B973">
         <v>0</v>
@@ -37715,7 +37661,7 @@
     </row>
     <row r="974" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B974">
         <v>0</v>
@@ -37753,7 +37699,7 @@
     </row>
     <row r="975" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B975">
         <v>0</v>
@@ -37791,7 +37737,7 @@
     </row>
     <row r="976" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B976">
         <v>0</v>
@@ -37829,7 +37775,7 @@
     </row>
     <row r="977" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B977">
         <v>9</v>
@@ -37867,7 +37813,7 @@
     </row>
     <row r="978" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B978">
         <v>0</v>
@@ -37905,7 +37851,7 @@
     </row>
     <row r="979" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B979">
         <v>0</v>
@@ -37954,8 +37900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61970A0C-D4A6-694C-BD8D-B5A41C97AA6F}">
   <dimension ref="A1:D634"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37968,16 +37914,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -38049,7 +37995,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <f>_xlfn.XLOOKUP($B6,data!A7:A984,data!G7:G984)</f>
@@ -38065,7 +38011,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <f>_xlfn.XLOOKUP($B7,data!A8:A985,data!G8:G985)</f>
@@ -38081,7 +38027,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <f>_xlfn.XLOOKUP($B8,data!A9:A986,data!G9:G986)</f>
@@ -38097,7 +38043,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <f>_xlfn.XLOOKUP($B9,data!A10:A987,data!G10:G987)</f>
@@ -38113,7 +38059,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <f>_xlfn.XLOOKUP($B10,data!A11:A988,data!G11:G988)</f>
@@ -38145,7 +38091,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <f>_xlfn.XLOOKUP($B12,data!A15:A992,data!G15:G992)</f>
@@ -38161,7 +38107,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <f>_xlfn.XLOOKUP($B13,data!A16:A993,data!G16:G993)</f>
@@ -38177,7 +38123,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <f>_xlfn.XLOOKUP($B14,data!A17:A994,data!G17:G994)</f>
@@ -38193,7 +38139,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <f>_xlfn.XLOOKUP($B15,data!A18:A995,data!G18:G995)</f>
@@ -38209,7 +38155,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <f>_xlfn.XLOOKUP($B16,data!A19:A996,data!G19:G996)</f>
@@ -38225,7 +38171,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <f>_xlfn.XLOOKUP($B17,data!A20:A997,data!G20:G997)</f>
@@ -38241,7 +38187,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <f>_xlfn.XLOOKUP($B18,data!A21:A998,data!G21:G998)</f>
@@ -38257,7 +38203,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <f>_xlfn.XLOOKUP($B19,data!A22:A999,data!G22:G999)</f>
@@ -38273,7 +38219,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <f>_xlfn.XLOOKUP($B20,data!A23:A1000,data!G23:G1000)</f>
@@ -38289,7 +38235,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <f>_xlfn.XLOOKUP($B21,data!A24:A1001,data!G24:G1001)</f>
@@ -38305,7 +38251,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <f>_xlfn.XLOOKUP($B22,data!A27:A1004,data!G27:G1004)</f>
@@ -38321,7 +38267,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <f>_xlfn.XLOOKUP($B23,data!A29:A1006,data!G29:G1006)</f>
@@ -38337,7 +38283,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <f>_xlfn.XLOOKUP($B24,data!A27:A1004,data!G27:G1004)</f>
@@ -40002,25 +39948,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
